--- a/file/template_driver.xlsx
+++ b/file/template_driver.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truongtq.BA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truongtq.BA\PycharmProjects\pythonProject\s_taxi\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Họ tên chủ xe - lái xe</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>tranquangtruong5</t>
+  </si>
+  <si>
+    <t>8435121242</t>
+  </si>
+  <si>
+    <t>8425121241</t>
+  </si>
+  <si>
+    <t>8445121243</t>
+  </si>
+  <si>
+    <t>8455121244</t>
+  </si>
+  <si>
+    <t>8465121245</t>
   </si>
 </sst>
 </file>
@@ -148,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +175,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,7 +463,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,8 +493,8 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
-        <v>8435210360</v>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -489,8 +507,8 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
-        <v>8435210360</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -503,8 +521,8 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
-        <v>8435210360</v>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -517,8 +535,8 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
-        <v>8435210360</v>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -531,8 +549,8 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
-        <v>8435210360</v>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
